--- a/Documentacion/listado casos de uso.xlsx
+++ b/Documentacion/listado casos de uso.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Nro.de Caso de Uso</t>
   </si>
@@ -145,16 +145,28 @@
   </si>
   <si>
     <t>Permite al usuario visualizar el pre-ticket con los correspondientes totales y sub-totales a abonar por parte de los comensales</t>
+  </si>
+  <si>
+    <t>Visualizar informe</t>
+  </si>
+  <si>
+    <t>El usuario visualiza el informe de tickets entre fechas seleccionadas</t>
+  </si>
+  <si>
+    <t>El usuario selecciona dos fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite al usuario visualizar el informe de tickets, mostrando Fechas, Cantidad de tickets, Total facturado, Mayor ticket facturado, Promedio </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,6 +577,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -599,6 +612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,14 +788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
@@ -791,7 +805,7 @@
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -811,7 +825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -831,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -851,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -871,7 +885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -891,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="75">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -911,7 +925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -931,7 +945,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -951,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -971,8 +985,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="120">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
@@ -989,15 +1005,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="18"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6">
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
@@ -1005,7 +1033,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1013,7 +1041,7 @@
       <c r="E13" s="15"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
@@ -1021,7 +1049,7 @@
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
@@ -1029,7 +1057,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1037,7 +1065,7 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
@@ -1045,7 +1073,7 @@
       <c r="E17" s="15"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1053,7 +1081,7 @@
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
@@ -1061,7 +1089,7 @@
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -1069,7 +1097,7 @@
       <c r="E20" s="15"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1077,7 +1105,7 @@
       <c r="E21" s="15"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1085,7 +1113,7 @@
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1093,7 +1121,7 @@
       <c r="E23" s="15"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -1101,7 +1129,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1109,7 +1137,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1117,7 +1145,7 @@
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1125,7 +1153,7 @@
       <c r="E27" s="15"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1133,7 +1161,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1141,7 +1169,7 @@
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1149,7 +1177,7 @@
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1157,7 +1185,7 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1165,7 +1193,7 @@
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
@@ -1173,7 +1201,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -1181,7 +1209,7 @@
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -1189,7 +1217,7 @@
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
@@ -1197,7 +1225,7 @@
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
@@ -1205,7 +1233,7 @@
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="21"/>
@@ -1220,24 +1248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
